--- a/Pac-LiteServiceDocumentation/Sheets/0x0411.xlsx
+++ b/Pac-LiteServiceDocumentation/Sheets/0x0411.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.paddock\Desktop\Documentation\Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.paddock\Documents\GitHub\ComunicationLayerService\Pac-LiteServiceDocumentation\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1596,7 +1596,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1712,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1758,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1781,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1804,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1827,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
